--- a/biology/Zoologie/Ecsenius_midas/Ecsenius_midas.xlsx
+++ b/biology/Zoologie/Ecsenius_midas/Ecsenius_midas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blennie de Midas
-Ecsenius midas, communément nommée Blennie de Midas[1] , est une espèce de poissons marins de la famille des Blenniidae.
-La Blennie de Midas est présente dans les eaux tropicales de l'Indo-Pacifique, soit des côtes orientales de l'Afrique aux îles Marquises, mer Rouge incluse[2].
-Elle peut atteindre une taille de 13 cm de longueur[3]. Sa couleur normale est orange doré, mais elle peut adapter sa couleur (mimétisme) pour la faire correspondre à celle des poissons avec lesquels elle se mélange[4]. Elle a une tache noire près de l'anus. Elle est souvent observée en compagnie du Barbier orange Pseudanthias squamipinnis[1].
-Elle se nourrit surtout de zooplancton, mais également de phytoplancton[5].
+Ecsenius midas, communément nommée Blennie de Midas , est une espèce de poissons marins de la famille des Blenniidae.
+La Blennie de Midas est présente dans les eaux tropicales de l'Indo-Pacifique, soit des côtes orientales de l'Afrique aux îles Marquises, mer Rouge incluse.
+Elle peut atteindre une taille de 13 cm de longueur. Sa couleur normale est orange doré, mais elle peut adapter sa couleur (mimétisme) pour la faire correspondre à celle des poissons avec lesquels elle se mélange. Elle a une tache noire près de l'anus. Elle est souvent observée en compagnie du Barbier orange Pseudanthias squamipinnis.
+Elle se nourrit surtout de zooplancton, mais également de phytoplancton.
 </t>
         </is>
       </c>
